--- a/Data/MIMICS_forcings/MSBio_forcing_INC_mock.xlsx
+++ b/Data/MIMICS_forcings/MSBio_forcing_INC_mock.xlsx
@@ -1,55 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MIMICS_MSBio\Data\MIMICS_forcings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\MIMICS_MSBio\Data\MIMICS_forcings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6076D00-BB0F-4B3F-B36D-973E0F62BF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C980126-6A44-494B-8A46-718F1F3B8736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53070" yWindow="1515" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSBio_forcing_INC_mock" sheetId="1" r:id="rId1"/>
+    <sheet name="updated" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E8F29A28-92EA-4AF9-B166-4B5C883A56BA}</author>
-  </authors>
-  <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E8F29A28-92EA-4AF9-B166-4B5C883A56BA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Expect this to be ~0.1</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +101,9 @@
   <si>
     <t>CO2_cum_tot_mg C</t>
   </si>
+  <si>
+    <t>CO2_cum_mgCpergsoilandlitter</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +247,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -691,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -729,7 +708,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,6 +717,7 @@
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -795,12 +775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Pierson, Derek - FS, BOISE, ID" id="{3D8C8623-E56B-4D00-93BC-29849C93C10A}" userId="S::Derek.Pierson@usda.gov::7af0654c-ad33-4add-8b9c-1c0cb9cbb4c5" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,35 +1072,27 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q1" dT="2022-10-25T15:45:00.84" personId="{3D8C8623-E56B-4D00-93BC-29849C93C10A}" id="{E8F29A28-92EA-4AF9-B166-4B5C883A56BA}">
-    <text>Expect this to be ~0.1</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="10.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="12.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -1235,7 +1201,7 @@
         <v>1.6460884910460992E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1291,7 +1257,7 @@
         <v>2.5441861385195027E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -1347,7 +1313,7 @@
         <v>1.5434145995543668E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -1403,7 +1369,7 @@
         <v>2.4287714218360068E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -1459,7 +1425,7 @@
         <v>1.3004841158730156E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -1515,7 +1481,7 @@
         <v>2.4484966540123452E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41</v>
       </c>
@@ -1571,7 +1537,7 @@
         <v>1.3368301659593283E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42</v>
       </c>
@@ -1627,7 +1593,7 @@
         <v>2.3203087561892133E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>51</v>
       </c>
@@ -1683,7 +1649,7 @@
         <v>1.1039813506222224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>52</v>
       </c>
@@ -1739,7 +1705,7 @@
         <v>2.3568235654666666E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>61</v>
       </c>
@@ -1795,7 +1761,7 @@
         <v>1.4000692554066131E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>62</v>
       </c>
@@ -1854,6 +1820,790 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9942D9-8DEA-FA4D-9D16-3EA4B44F569A}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="11">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
+        <v>49</v>
+      </c>
+      <c r="O2" s="12">
+        <f>((K2*L2/100)+(M2*N2/100))*1000</f>
+        <v>562.5</v>
+      </c>
+      <c r="P2" s="13">
+        <v>30.946463631666699</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>P2*(K2+M2)</f>
+        <v>38.683079539583375</v>
+      </c>
+      <c r="R2" s="15">
+        <f>Q2/O2</f>
+        <v>6.8769919181481551E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="11">
+        <v>29</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>49</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" ref="O3:O13" si="0">((K3*L3/100)+(M3*N3/100))*1000</f>
+        <v>562.5</v>
+      </c>
+      <c r="P3" s="13">
+        <v>47.830699404166701</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q13" si="1">P3*(K3+M3)</f>
+        <v>59.788374255208375</v>
+      </c>
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R13" si="2">Q3/O3</f>
+        <v>0.10629044312037045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="11">
+        <v>13</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>49</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" si="0"/>
+        <v>522.5</v>
+      </c>
+      <c r="P4" s="13">
+        <v>28.8618530116667</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="1"/>
+        <v>36.077316264583374</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" si="2"/>
+        <v>6.9047495243221763E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="11">
+        <v>13</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>49</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="0"/>
+        <v>522.5</v>
+      </c>
+      <c r="P5" s="13">
+        <v>45.4180255883333</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="1"/>
+        <v>56.772531985416627</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10865556360845288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="11">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>49</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="P6" s="13">
+        <v>24.579149789999999</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="1"/>
+        <v>30.723937237499999</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="2"/>
+        <v>6.1447874474999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="11">
+        <v>4</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11">
+        <v>49</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="P7" s="13">
+        <v>46.276586760833297</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="1"/>
+        <v>57.845733451041625</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.11569146690208325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>49</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="0"/>
+        <v>502.49999999999994</v>
+      </c>
+      <c r="P8" s="13">
+        <v>25.199248628333301</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>31.499060785416624</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="2"/>
+        <v>6.2684698080431103E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="11">
+        <v>5</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11">
+        <v>49</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="0"/>
+        <v>502.49999999999994</v>
+      </c>
+      <c r="P9" s="13">
+        <v>43.737820054166697</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="1"/>
+        <v>54.67227506770837</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10880054739842462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>49</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="0"/>
+        <v>498.74999999999994</v>
+      </c>
+      <c r="P10" s="13">
+        <v>20.699650324166701</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="1"/>
+        <v>25.874562905208375</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="2"/>
+        <v>5.1878822867585724E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
+        <v>49</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="0"/>
+        <v>498.74999999999994</v>
+      </c>
+      <c r="P11" s="13">
+        <v>44.190441852500001</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="1"/>
+        <v>55.238052315624998</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.1107529870989975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="11">
+        <v>6</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
+        <v>49</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="P12" s="13">
+        <v>26.1112916133333</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="1"/>
+        <v>32.639114516666623</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.4631909933993315E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="11">
+        <v>6</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>49</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="P13" s="13">
+        <v>46.046483109999997</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="1"/>
+        <v>57.558103887499996</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.11397644334158415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>